--- a/mereni/vysledky_mereni.xlsx
+++ b/mereni/vysledky_mereni.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8x1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="15">
   <si>
     <t>M</t>
   </si>
@@ -105,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -347,11 +347,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -375,6 +401,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -655,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P15"/>
+  <dimension ref="B1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B16" sqref="B16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,125 +809,149 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="20">
-        <v>2</v>
+      <c r="B5" s="24">
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="21"/>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5.87</v>
+      </c>
+      <c r="I5" s="1">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="J5" s="25">
+        <v>7.17</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>17.64</v>
+      </c>
+      <c r="O5" s="1">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="P5" s="25">
+        <v>21.54</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
-        <v>3</v>
+      <c r="B6" s="20">
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="20">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3.72</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3.32</v>
-      </c>
-      <c r="I6" s="2">
-        <v>13.79</v>
-      </c>
-      <c r="J6" s="15">
-        <v>7.23</v>
-      </c>
-      <c r="K6" s="14">
+      <c r="F6" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.74</v>
+      </c>
+      <c r="I6" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="J6" s="21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K6" s="20">
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" s="1">
-        <v>16.600000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="N6" s="1">
-        <v>22.43</v>
+        <v>18</v>
       </c>
       <c r="O6" s="1">
-        <v>61.47</v>
-      </c>
-      <c r="P6" s="15">
-        <v>48.75</v>
+        <v>97.71</v>
+      </c>
+      <c r="P6" s="21">
+        <v>22.78</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
-        <v>1.63</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.62</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3.54</v>
-      </c>
-      <c r="I7" s="1">
-        <v>23.13</v>
+      <c r="F7" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="I7" s="2">
+        <v>13.79</v>
       </c>
       <c r="J7" s="15">
-        <v>5.81</v>
+        <v>7.23</v>
       </c>
       <c r="K7" s="14">
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1">
-        <v>5.28</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>11.83</v>
+        <v>22.43</v>
       </c>
       <c r="O7" s="1">
-        <v>75.400000000000006</v>
+        <v>61.47</v>
       </c>
       <c r="P7" s="15">
-        <v>19.399999999999999</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -910,42 +963,42 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1.1399999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="G8" s="1">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H8" s="1">
-        <v>1.1399999999999999</v>
+        <v>3.54</v>
       </c>
       <c r="I8" s="1">
-        <v>54.68</v>
+        <v>23.13</v>
       </c>
       <c r="J8" s="15">
-        <v>4.9800000000000004</v>
+        <v>5.81</v>
       </c>
       <c r="K8" s="14">
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1">
-        <v>6</v>
+        <v>5.28</v>
       </c>
       <c r="N8" s="1">
-        <v>4.32</v>
+        <v>11.83</v>
       </c>
       <c r="O8" s="1">
-        <v>85.71</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="P8" s="15">
-        <v>19.84</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -957,89 +1010,89 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G9" s="1">
         <v>1.73</v>
       </c>
-      <c r="G9" s="1">
-        <v>7.33</v>
-      </c>
       <c r="H9" s="1">
-        <v>7.3</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>38.58</v>
+        <v>54.68</v>
       </c>
       <c r="J9" s="15">
-        <v>8.56</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="K9" s="14">
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" s="1">
-        <v>22.18</v>
+        <v>6</v>
       </c>
       <c r="N9" s="1">
-        <v>26.23</v>
+        <v>4.32</v>
       </c>
       <c r="O9" s="1">
-        <v>98.48</v>
+        <v>85.71</v>
       </c>
       <c r="P9" s="15">
-        <v>30.77</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E10" s="14">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0.61</v>
+        <v>1.73</v>
       </c>
       <c r="G10" s="1">
-        <v>0.43</v>
+        <v>7.33</v>
       </c>
       <c r="H10" s="1">
-        <v>3.61</v>
+        <v>7.3</v>
       </c>
       <c r="I10" s="1">
-        <v>4.34</v>
+        <v>38.58</v>
       </c>
       <c r="J10" s="15">
-        <v>6.67</v>
+        <v>8.56</v>
       </c>
       <c r="K10" s="14">
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10" s="1">
-        <v>3.44</v>
+        <v>22.18</v>
       </c>
       <c r="N10" s="1">
-        <v>17.489999999999998</v>
+        <v>26.23</v>
       </c>
       <c r="O10" s="1">
-        <v>34.450000000000003</v>
+        <v>98.48</v>
       </c>
       <c r="P10" s="15">
-        <v>32.270000000000003</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1051,42 +1104,42 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1.93</v>
+        <v>0.61</v>
       </c>
       <c r="G11" s="1">
-        <v>1.18</v>
+        <v>0.43</v>
       </c>
       <c r="H11" s="1">
-        <v>7.76</v>
+        <v>3.61</v>
       </c>
       <c r="I11" s="1">
-        <v>10.7</v>
+        <v>4.34</v>
       </c>
       <c r="J11" s="15">
-        <v>10.08</v>
+        <v>6.67</v>
       </c>
       <c r="K11" s="14">
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1">
-        <v>10.62</v>
+        <v>3.44</v>
       </c>
       <c r="N11" s="1">
-        <v>54.73</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="O11" s="1">
-        <v>96.59</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="P11" s="15">
-        <v>71.08</v>
+        <v>32.270000000000003</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -1098,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0.93</v>
+        <v>1.93</v>
       </c>
       <c r="G12" s="1">
-        <v>0.96</v>
+        <v>1.18</v>
       </c>
       <c r="H12" s="1">
-        <v>3.73</v>
+        <v>7.76</v>
       </c>
       <c r="I12" s="1">
-        <v>4.18</v>
+        <v>10.7</v>
       </c>
       <c r="J12" s="15">
-        <v>6.79</v>
+        <v>10.08</v>
       </c>
       <c r="K12" s="14">
         <v>0</v>
@@ -1119,68 +1172,68 @@
         <v>6</v>
       </c>
       <c r="M12" s="1">
-        <v>9.6300000000000008</v>
+        <v>10.62</v>
       </c>
       <c r="N12" s="1">
-        <v>10.77</v>
+        <v>54.73</v>
       </c>
       <c r="O12" s="1">
-        <v>41.88</v>
+        <v>96.59</v>
       </c>
       <c r="P12" s="15">
-        <v>19.59</v>
+        <v>71.08</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E13" s="14">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="G13" s="1">
-        <v>1.1200000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="H13" s="1">
-        <v>6.5</v>
+        <v>3.73</v>
       </c>
       <c r="I13" s="1">
-        <v>12.44</v>
+        <v>4.18</v>
       </c>
       <c r="J13" s="15">
-        <v>8.1300000000000008</v>
+        <v>6.79</v>
       </c>
       <c r="K13" s="14">
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M13" s="1">
-        <v>6.3</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="N13" s="1">
-        <v>45.61</v>
+        <v>10.77</v>
       </c>
       <c r="O13" s="1">
-        <v>70.010000000000005</v>
+        <v>41.88</v>
       </c>
       <c r="P13" s="15">
-        <v>57.01</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1192,136 +1245,135 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>0.94</v>
       </c>
       <c r="G14" s="1">
-        <v>1.84</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>8.56</v>
+        <v>6.5</v>
       </c>
       <c r="I14" s="1">
-        <v>30.74</v>
+        <v>12.44</v>
       </c>
       <c r="J14" s="15">
-        <v>11.27</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="K14" s="14">
         <v>0</v>
       </c>
       <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="N14" s="1">
+        <v>45.61</v>
+      </c>
+      <c r="O14" s="1">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="P14" s="15">
+        <v>57.01</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8.56</v>
+      </c>
+      <c r="I15" s="1">
+        <v>30.74</v>
+      </c>
+      <c r="J15" s="15">
+        <v>11.27</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
         <v>7</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M15" s="1">
         <v>6.37</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N15" s="1">
         <v>50.33</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O15" s="1">
         <v>98.23</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P15" s="15">
         <v>66.23</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16">
+    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="16">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="16">
         <v>0</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="17">
         <v>8.26</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="17">
         <v>7.68</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="17">
         <v>37.549999999999997</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J16" s="18">
         <v>9.69</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K16" s="16">
         <v>0</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L16" s="17">
         <v>7</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M16" s="17">
         <v>37.4</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N16" s="17">
         <v>28.83</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O16" s="17">
         <v>96.16</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P16" s="18">
         <v>36.369999999999997</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E6:E15 E4">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F15 F4">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G15 G4">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H15 H4">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I15 I4">
+  <conditionalFormatting sqref="E7:E16 E4">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -1333,7 +1385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J15 J4">
+  <conditionalFormatting sqref="F7:F16 F4">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -1345,7 +1397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K15 K4">
+  <conditionalFormatting sqref="G7:G16 G4">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -1357,7 +1409,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L15 L4">
+  <conditionalFormatting sqref="H7:H16 H4">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -1369,7 +1421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M15 M4">
+  <conditionalFormatting sqref="I7:I16 I4">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -1381,7 +1433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N15 N4">
+  <conditionalFormatting sqref="J7:J16 J4">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -1393,7 +1445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O15 O4">
+  <conditionalFormatting sqref="K7:K16 K4">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -1405,8 +1457,200 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P15 P4">
+  <conditionalFormatting sqref="L7:L16 L4">
     <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M16 M4">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:N16 N4">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O16 O4">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:P16 P4">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F16">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H16">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I16">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L16">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P16">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1426,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1832,7 +2076,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -2445,7 +2689,7 @@
   <dimension ref="B1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3378,10 +3622,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P15"/>
+  <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3607,40 +3851,40 @@
         <v>13</v>
       </c>
       <c r="E7" s="14">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="F7" s="1">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="G7" s="1">
-        <v>3.18</v>
+        <v>1.22</v>
       </c>
       <c r="H7" s="1">
-        <v>2.82</v>
+        <v>8.26</v>
       </c>
       <c r="I7" s="1">
-        <v>26.52</v>
+        <v>11.96</v>
       </c>
       <c r="J7" s="15">
-        <v>4.0999999999999996</v>
+        <v>11.88</v>
       </c>
       <c r="K7" s="14">
         <v>8</v>
       </c>
       <c r="L7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M7" s="1">
-        <v>8.5</v>
+        <v>4.88</v>
       </c>
       <c r="N7" s="1">
-        <v>9.0299999999999994</v>
+        <v>19.45</v>
       </c>
       <c r="O7" s="1">
-        <v>70.81</v>
+        <v>47.66</v>
       </c>
       <c r="P7" s="15">
-        <v>13.11</v>
+        <v>27.96</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -3654,40 +3898,40 @@
         <v>13</v>
       </c>
       <c r="E8" s="14">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="F8" s="1">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="G8" s="1">
-        <v>1.22</v>
+        <v>3.18</v>
       </c>
       <c r="H8" s="1">
-        <v>8.26</v>
+        <v>2.82</v>
       </c>
       <c r="I8" s="1">
-        <v>11.96</v>
+        <v>26.52</v>
       </c>
       <c r="J8" s="15">
-        <v>11.88</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K8" s="14">
         <v>8</v>
       </c>
       <c r="L8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8" s="1">
-        <v>4.88</v>
+        <v>8.5</v>
       </c>
       <c r="N8" s="1">
-        <v>19.45</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="O8" s="1">
-        <v>47.66</v>
+        <v>70.81</v>
       </c>
       <c r="P8" s="15">
-        <v>27.96</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -4019,8 +4263,1502 @@
         <v>157.80000000000001</v>
       </c>
     </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E6:E15 E4">
+  <conditionalFormatting sqref="E4 E6 E9:E15">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 F4 F9:F15">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G4 G9:G15">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H4 H9:H15">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I4 I9:I15">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6 J4 J9:J15">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6 K4 K9:K15">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6 L4 L9:L15">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6 M4 M9:M15">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6 N4 N9:N15">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6 O4 O9:O15">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6 P4 P9:P15">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E6 E9:E15">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F6 F9:F15">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G6 G9:G15">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H6 H9:H15">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I6 I9:I15">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J6 J9:J15">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K6 K9:K15">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L6 L9:L15">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M6 M9:M15">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N6 N9:N15">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O6 O9:O15">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P6 P9:P15">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E15">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4032,152 +5770,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F15 F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G15 G4">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H15 H4">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I15 I4">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J15 J4">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K15 K4">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L15 L4">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M15 M4">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N15 N4">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O15 O4">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P15 P4">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E15">
+  <conditionalFormatting sqref="F4:F15">
     <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F15">
-    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/mereni/vysledky_mereni.xlsx
+++ b/mereni/vysledky_mereni.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="17">
   <si>
     <t>M</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>graf</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -402,8 +408,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -684,16 +751,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:J16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="24"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="19"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
@@ -714,661 +784,676 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="12">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="25">
         <v>0</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="44">
         <v>0.6</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="44">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="44">
         <v>5.57</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="44">
         <v>6.29</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="27">
         <v>7.14</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="25">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="26">
         <v>4</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="26">
         <v>2.74</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="26">
         <v>14.9</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="26">
         <v>30.48</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="27">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="24">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="28">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="29">
         <v>1.86</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="29">
         <v>1.76</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="29">
         <v>5.87</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="29">
         <v>17.579999999999998</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="30">
         <v>7.17</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="28">
         <v>0</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="29">
         <v>6</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="29">
         <v>8</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="29">
         <v>17.64</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="29">
         <v>80.040000000000006</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="30">
         <v>21.54</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="20">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="31">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="31">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="29">
         <v>2.3199999999999998</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="29">
         <v>2.5299999999999998</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="29">
         <v>7.74</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="29">
         <v>25.3</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="32">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="31">
         <v>0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="29">
         <v>6</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="29">
         <v>9.77</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="29">
         <v>18</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="29">
         <v>97.71</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="32">
         <v>22.78</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="33">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="33">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="26">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="26">
         <v>3.72</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="26">
         <v>3.32</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="26">
         <v>13.79</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="34">
         <v>7.23</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="33">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="29">
         <v>4</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="29">
         <v>16.600000000000001</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="29">
         <v>22.43</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="29">
         <v>61.47</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="34">
         <v>48.75</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="33">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="33">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="29">
         <v>1.63</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="29">
         <v>1.62</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="29">
         <v>3.54</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="29">
         <v>23.13</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="34">
         <v>5.81</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="33">
         <v>0</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="29">
         <v>3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="29">
         <v>5.28</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="29">
         <v>11.83</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="29">
         <v>75.400000000000006</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="34">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="33">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="33">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="29">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="29">
         <v>1.73</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="29">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="29">
         <v>54.68</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="34">
         <v>4.9800000000000004</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="33">
         <v>0</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="29">
         <v>6</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="29">
         <v>6</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="29">
         <v>4.32</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="29">
         <v>85.71</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="34">
         <v>19.84</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="14">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="33">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="33">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="29">
         <v>1.73</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="29">
         <v>7.33</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="29">
         <v>7.3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="29">
         <v>38.58</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="34">
         <v>8.56</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="33">
         <v>0</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="29">
         <v>7</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="29">
         <v>22.18</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="29">
         <v>26.23</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="29">
         <v>98.48</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="34">
         <v>30.77</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="33">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="29">
         <v>0.61</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="29">
         <v>0.43</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="29">
         <v>3.61</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="29">
         <v>4.34</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="34">
         <v>6.67</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="33">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="29">
         <v>5</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="29">
         <v>3.44</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="29">
         <v>17.489999999999998</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="29">
         <v>34.450000000000003</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="34">
         <v>32.270000000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="33">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="33">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="29">
         <v>1.93</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="29">
         <v>1.18</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="29">
         <v>7.76</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="29">
         <v>10.7</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="34">
         <v>10.08</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="33">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="29">
         <v>6</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="29">
         <v>10.62</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="29">
         <v>54.73</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="29">
         <v>96.59</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="34">
         <v>71.08</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="33">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="33">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="29">
         <v>0.93</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="29">
         <v>0.96</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="29">
         <v>3.73</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="29">
         <v>4.18</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="34">
         <v>6.79</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="33">
         <v>0</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="29">
         <v>6</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="29">
         <v>9.6300000000000008</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="29">
         <v>10.77</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="29">
         <v>41.88</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="34">
         <v>19.59</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="33">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="33">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="29">
         <v>0.94</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="29">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="29">
         <v>6.5</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="29">
         <v>12.44</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="34">
         <v>8.1300000000000008</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="33">
         <v>0</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="29">
         <v>5</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="29">
         <v>6.3</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="29">
         <v>45.61</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="29">
         <v>70.010000000000005</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="34">
         <v>57.01</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="14">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="33">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="33">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="29">
         <v>3</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="29">
         <v>1.84</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="29">
         <v>8.56</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="29">
         <v>30.74</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="34">
         <v>11.27</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="33">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="29">
         <v>7</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="29">
         <v>6.37</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="29">
         <v>50.33</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="29">
         <v>98.23</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="34">
         <v>66.23</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="35">
         <v>3</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="35">
         <v>0</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="36">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="36">
         <v>8.26</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="36">
         <v>7.68</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="36">
         <v>37.549999999999997</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="37">
         <v>9.69</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="35">
         <v>0</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="36">
         <v>7</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="36">
         <v>37.4</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="36">
         <v>28.83</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="36">
         <v>96.16</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="37">
         <v>36.369999999999997</v>
       </c>
     </row>
@@ -1668,16 +1753,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="19"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
@@ -1698,708 +1783,714 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="12">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="25">
         <v>1.18</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="26">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="26">
         <v>3.96</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="26">
         <v>5.6</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="26">
         <v>23.28</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="27">
         <v>6.83</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="25">
         <v>1</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="26">
         <v>7</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="26">
         <v>13.2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="26">
         <v>20.059999999999999</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="26">
         <v>77.650000000000006</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="27">
         <v>24.47</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="33">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="29">
         <v>1.03</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="29">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="29">
         <v>5.41</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="29">
         <v>9.65</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="34">
         <v>7.21</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="33">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="29">
         <v>6</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="29">
         <v>10.87</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="29">
         <v>14.78</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="29">
         <v>90.61</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="34">
         <v>19.71</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="33">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="33">
         <v>0.48</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="29">
         <v>2.48</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="29">
         <v>3.13</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="29">
         <v>90.47</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="29">
         <v>20.84</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="34">
         <v>107.7</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="33">
         <v>1</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="29">
         <v>8</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="29">
         <v>13.79</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="29">
         <v>174</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="29">
         <v>91.95</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="34">
         <v>207.14</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="20">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="33">
         <v>0.21</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="29">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="29">
         <v>5.0199999999999996</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="29">
         <v>24.07</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="29">
         <v>19.3</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="34">
         <v>39.46</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="33">
         <v>1</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="29">
         <v>4</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="29">
         <v>18.45</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="29">
         <v>76.900000000000006</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="29">
         <v>70.97</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="34">
         <v>126.06</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="33">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="33">
         <v>0.22</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="29">
         <v>0.95</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="29">
         <v>2.7</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="29">
         <v>99.11</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="29">
         <v>24.53</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="34">
         <v>14.02</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="33">
         <v>1</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="29">
         <v>4</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="29">
         <v>8.08</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="29">
         <v>24.22</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="29">
         <v>73.45</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="34">
         <v>37.270000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="33">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="33">
         <v>0.44</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="29">
         <v>1.81</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="29">
         <v>2.3199999999999998</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="29">
         <v>52.15</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="29">
         <v>21.09</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="34">
         <v>69.540000000000006</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="33">
         <v>1</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="29">
         <v>8</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="29">
         <v>7.92</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="29">
         <v>90</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="29">
         <v>71.989999999999995</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="34">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="14">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="33">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="33">
         <v>0.23</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="29">
         <v>1.38</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="29">
         <v>6.49</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="29">
         <v>46.64</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="29">
         <v>17.079999999999998</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="34">
         <v>99.24</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="33">
         <v>1</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="29">
         <v>7</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="29">
         <v>26.04</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="29">
         <v>128.25</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="29">
         <v>68.53</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="34">
         <v>272.88</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0.48</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1.47</v>
+      </c>
+      <c r="G11" s="29">
+        <v>2.58</v>
+      </c>
+      <c r="H11" s="29">
+        <v>48.04</v>
+      </c>
+      <c r="I11" s="29">
+        <v>16.16</v>
+      </c>
+      <c r="J11" s="34">
+        <v>57.46</v>
+      </c>
+      <c r="K11" s="33">
+        <v>1</v>
+      </c>
+      <c r="L11" s="29">
+        <v>8</v>
+      </c>
+      <c r="M11" s="29">
+        <v>7.06</v>
+      </c>
+      <c r="N11" s="29">
+        <v>99.25</v>
+      </c>
+      <c r="O11" s="29">
+        <v>44.13</v>
+      </c>
+      <c r="P11" s="34">
+        <v>118.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="33">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0.68</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H12" s="29">
+        <v>3.46</v>
+      </c>
+      <c r="I12" s="29">
+        <v>4.16</v>
+      </c>
+      <c r="J12" s="34">
+        <v>4.43</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29">
+        <v>7</v>
+      </c>
+      <c r="M12" s="29">
+        <v>15.32</v>
+      </c>
+      <c r="N12" s="29">
+        <v>22.66</v>
+      </c>
+      <c r="O12" s="29">
+        <v>109.41</v>
+      </c>
+      <c r="P12" s="34">
+        <v>29.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="33">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="14">
-        <v>0.48</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.47</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.58</v>
-      </c>
-      <c r="H11" s="1">
-        <v>48.04</v>
-      </c>
-      <c r="I11" s="1">
-        <v>16.16</v>
-      </c>
-      <c r="J11" s="15">
-        <v>57.46</v>
-      </c>
-      <c r="K11" s="14">
+      <c r="E13" s="33">
+        <v>0.26</v>
+      </c>
+      <c r="F13" s="29">
+        <v>2.94</v>
+      </c>
+      <c r="G13" s="29">
+        <v>3.06</v>
+      </c>
+      <c r="H13" s="29">
+        <v>89.27</v>
+      </c>
+      <c r="I13" s="29">
+        <v>16.98</v>
+      </c>
+      <c r="J13" s="34">
+        <v>101.17</v>
+      </c>
+      <c r="K13" s="33">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L13" s="29">
         <v>8</v>
       </c>
-      <c r="M11" s="1">
-        <v>7.06</v>
-      </c>
-      <c r="N11" s="1">
-        <v>99.25</v>
-      </c>
-      <c r="O11" s="1">
-        <v>44.13</v>
-      </c>
-      <c r="P11" s="15">
-        <v>118.72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
+      <c r="M13" s="29">
+        <v>14.95</v>
+      </c>
+      <c r="N13" s="29">
+        <v>166.44</v>
+      </c>
+      <c r="O13" s="29">
+        <v>83.07</v>
+      </c>
+      <c r="P13" s="34">
+        <v>188.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="33">
+        <v>3</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E14" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="29">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G14" s="29">
+        <v>6.58</v>
+      </c>
+      <c r="H14" s="29">
+        <v>45.11</v>
+      </c>
+      <c r="I14" s="29">
+        <v>18.27</v>
+      </c>
+      <c r="J14" s="34">
+        <v>115.66</v>
+      </c>
+      <c r="K14" s="33">
+        <v>1</v>
+      </c>
+      <c r="L14" s="29">
+        <v>7</v>
+      </c>
+      <c r="M14" s="29">
+        <v>21.09</v>
+      </c>
+      <c r="N14" s="29">
+        <v>128.63999999999999</v>
+      </c>
+      <c r="O14" s="29">
+        <v>58.6</v>
+      </c>
+      <c r="P14" s="34">
+        <v>329.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0.34</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="G15" s="29">
+        <v>3.46</v>
+      </c>
+      <c r="H15" s="29">
+        <v>16.61</v>
+      </c>
+      <c r="I15" s="29">
+        <v>31.43</v>
+      </c>
+      <c r="J15" s="34">
+        <v>24.43</v>
+      </c>
+      <c r="K15" s="33">
         <v>1</v>
       </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="L15" s="29">
+        <v>6</v>
+      </c>
+      <c r="M15" s="29">
+        <v>6.78</v>
+      </c>
+      <c r="N15" s="29">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="O15" s="29">
+        <v>61.66</v>
+      </c>
+      <c r="P15" s="34">
+        <v>56.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="33">
+        <v>2</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="33">
+        <v>0.41</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1.36</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1.23</v>
+      </c>
+      <c r="H16" s="29">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="I16" s="29">
+        <v>11.21</v>
+      </c>
+      <c r="J16" s="34">
+        <v>73</v>
+      </c>
+      <c r="K16" s="33">
+        <v>1</v>
+      </c>
+      <c r="L16" s="29">
+        <v>7</v>
+      </c>
+      <c r="M16" s="29">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="N16" s="29">
+        <v>142.62</v>
+      </c>
+      <c r="O16" s="29">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="P16" s="34">
+        <v>156.37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="35">
+        <v>3</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="35">
         <v>0.68</v>
       </c>
-      <c r="G12" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3.46</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4.16</v>
-      </c>
-      <c r="J12" s="15">
-        <v>4.43</v>
-      </c>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>7</v>
-      </c>
-      <c r="M12" s="1">
-        <v>15.32</v>
-      </c>
-      <c r="N12" s="1">
-        <v>22.66</v>
-      </c>
-      <c r="O12" s="1">
-        <v>109.41</v>
-      </c>
-      <c r="P12" s="15">
-        <v>29.06</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="14">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="F17" s="36">
+        <v>3.42</v>
+      </c>
+      <c r="G17" s="36">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="H17" s="36">
+        <v>114.92</v>
+      </c>
+      <c r="I17" s="36">
+        <v>31.17</v>
+      </c>
+      <c r="J17" s="37">
+        <v>138.46</v>
+      </c>
+      <c r="K17" s="35">
         <v>1</v>
       </c>
-      <c r="E13" s="14">
-        <v>0.26</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2.94</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3.06</v>
-      </c>
-      <c r="H13" s="1">
-        <v>89.27</v>
-      </c>
-      <c r="I13" s="1">
-        <v>16.98</v>
-      </c>
-      <c r="J13" s="15">
-        <v>101.17</v>
-      </c>
-      <c r="K13" s="14">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="L17" s="36">
         <v>8</v>
       </c>
-      <c r="M13" s="1">
-        <v>14.95</v>
-      </c>
-      <c r="N13" s="1">
-        <v>166.44</v>
-      </c>
-      <c r="O13" s="1">
-        <v>83.07</v>
-      </c>
-      <c r="P13" s="15">
-        <v>188.62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6.58</v>
-      </c>
-      <c r="H14" s="1">
-        <v>45.11</v>
-      </c>
-      <c r="I14" s="1">
-        <v>18.27</v>
-      </c>
-      <c r="J14" s="15">
-        <v>115.66</v>
-      </c>
-      <c r="K14" s="14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>7</v>
-      </c>
-      <c r="M14" s="1">
-        <v>21.09</v>
-      </c>
-      <c r="N14" s="1">
-        <v>128.63999999999999</v>
-      </c>
-      <c r="O14" s="1">
-        <v>58.6</v>
-      </c>
-      <c r="P14" s="15">
-        <v>329.84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="14">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0.34</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3.46</v>
-      </c>
-      <c r="H15" s="1">
-        <v>16.61</v>
-      </c>
-      <c r="I15" s="1">
-        <v>31.43</v>
-      </c>
-      <c r="J15" s="15">
-        <v>24.43</v>
-      </c>
-      <c r="K15" s="14">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>6</v>
-      </c>
-      <c r="M15" s="1">
-        <v>6.78</v>
-      </c>
-      <c r="N15" s="1">
-        <v>38.130000000000003</v>
-      </c>
-      <c r="O15" s="1">
-        <v>61.66</v>
-      </c>
-      <c r="P15" s="15">
-        <v>56.07</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.41</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.36</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="H16" s="1">
-        <v>66.569999999999993</v>
-      </c>
-      <c r="I16" s="1">
-        <v>11.21</v>
-      </c>
-      <c r="J16" s="15">
-        <v>73</v>
-      </c>
-      <c r="K16" s="14">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>7</v>
-      </c>
-      <c r="M16" s="1">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="N16" s="1">
-        <v>142.62</v>
-      </c>
-      <c r="O16" s="1">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="P16" s="15">
-        <v>156.37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="16">
-        <v>3</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0.68</v>
-      </c>
-      <c r="F17" s="17">
-        <v>3.42</v>
-      </c>
-      <c r="G17" s="17">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="H17" s="17">
-        <v>114.92</v>
-      </c>
-      <c r="I17" s="17">
-        <v>31.17</v>
-      </c>
-      <c r="J17" s="18">
-        <v>138.46</v>
-      </c>
-      <c r="K17" s="16">
-        <v>1</v>
-      </c>
-      <c r="L17" s="17">
-        <v>8</v>
-      </c>
-      <c r="M17" s="17">
+      <c r="M17" s="36">
         <v>24.93</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="36">
         <v>159.87</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="36">
         <v>11.9</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="37">
         <v>192.62</v>
       </c>
     </row>
@@ -4318,7 +4409,7 @@
       <c r="S20" s="23"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4 E6 E9:E15">
+  <conditionalFormatting sqref="E6 E4 E9:E15">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -4330,7 +4421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F9:F15">
+  <conditionalFormatting sqref="F4 F6 F9:F15">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -4342,7 +4433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G4 G9:G15">
+  <conditionalFormatting sqref="G4 G6 G9:G15">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -4354,7 +4445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H4 H9:H15">
+  <conditionalFormatting sqref="H4 H6 H9:H15">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -4366,7 +4457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I4 I9:I15">
+  <conditionalFormatting sqref="I4 I6 I9:I15">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -4378,7 +4469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6 J4 J9:J15">
+  <conditionalFormatting sqref="J4 J6 J9:J15">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -4390,7 +4481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6 K4 K9:K15">
+  <conditionalFormatting sqref="K4 K6 K9:K15">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -4402,7 +4493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L4 L9:L15">
+  <conditionalFormatting sqref="L4 L6 L9:L15">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -4414,7 +4505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6 M4 M9:M15">
+  <conditionalFormatting sqref="M4 M6 M9:M15">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -4426,7 +4517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N4 N9:N15">
+  <conditionalFormatting sqref="N4 N6 N9:N15">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -4438,7 +4529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O4 O9:O15">
+  <conditionalFormatting sqref="O4 O6 O9:O15">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -4450,7 +4541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6 P4 P9:P15">
+  <conditionalFormatting sqref="P4 P6 P9:P15">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
